--- a/Vjezba4_COVID19/Bugarska - COVID19.xlsx
+++ b/Vjezba4_COVID19/Bugarska - COVID19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabja\Desktop\programi\RF\Vjezba4_COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF510F8-FCE0-4021-8DAC-178DFE5D5E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC52E5D-730D-4D92-8CA6-2DA4B892B695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05B43758-3ACA-448D-93C4-B46B0E603906}"/>
   </bookViews>
@@ -236,6 +236,1288 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hr-HR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hr-HR"/>
+              <a:t>Vrijednost koeficijenta beta</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bugarska - COVID19'!$K$212:$K$347</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="0">
+                  <c:v>2.2696782248211814E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0227174228780334E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0229903979437265E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2177884152528198E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7872844578601114E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7129298483879832E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9081523047054043E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1248126335793017E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4878123542896606E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7379478985628727E-8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8348370985627938E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2856331512695214E-7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2690065295511193E-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3557956008174513E-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.388682923892656E-7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3739094981835065E-7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.739687736550573E-8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.126147345983484E-7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5629810827958552E-7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5916760574795614E-7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5834865795752229E-7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3896316011283357E-7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.494705386365673E-7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.640595822326942E-8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9021344142565983E-7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0131979584804319E-7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.9352953714004215E-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6556777506399576E-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.6197121245557324E-7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5579692732720205E-7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0383132177264733E-7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9573967492329038E-7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.9913437566988569E-7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7700657264345585E-7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4197007278946439E-7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.3398297901101271E-7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3577768796846562E-7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.9876739921706942E-8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.1551227383152525E-7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.3405968325206161E-7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0201232324218014E-7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6950420546189618E-7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.0053995698607131E-7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1638551214349835E-7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.7996860013433361E-8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5986525830980055E-7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.1204881855819714E-7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6848804565832512E-7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.6263232054084914E-7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.625439575545525E-7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.2716680145216731E-8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.5697212933249781E-8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.2744173970953183E-7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.7526678460401399E-7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4857076711131931E-7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4271879358091159E-7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.3268815026410161E-7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.1383878522274076E-8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.9562476044203549E-8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1294269502783231E-7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.3989147760617781E-7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2673403438680937E-7</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.3240525835804457E-7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.46449107729108E-7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.23550489063675E-8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.3643501373179443E-8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.1548523468347321E-7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.681616353295843E-7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.4226805853443008E-7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.3338438410183913E-7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.3803944194556344E-7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.8307784909780644E-8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2946101611382133E-8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.7480116341814396E-8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2880375852763333E-7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.359621679333077E-8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.989304130179368E-8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.7007758112095443E-8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.0618840861227274E-8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.5527021841613656E-9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.7587047897338439E-8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.6835236308123629E-8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.7407712127229284E-8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.217658815058994E-8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.4226774034104233E-8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.6164840711062889E-8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8776837768156069E-8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.9387128465211758E-8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.5040892175576727E-8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0485493129224467E-7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.3914784294725892E-8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.6891690097177265E-8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.1227809933442274E-8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.0802934119208793E-8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.653989676080885E-8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.6311130930782224E-8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.7356416375611928E-8</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.9019826531756358E-8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.3891368097303579E-8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.8322405963255834E-8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.6233719612693202E-9</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.6627877421272309E-8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.8463096735359829E-8</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.3691498104866977E-8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.9041077064187525E-8</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.6311045350582687E-8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.3836124242171659E-8</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7.9355430294403562E-9</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.9394128873519966E-8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.7690162974175208E-8</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7.8661911148316278E-8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7.948722065121233E-8</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.0186540519332477E-7</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.7991985658822672E-8</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.1898974032469335E-8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.4207752524873044E-7</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.5326184800445438E-7</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.1138898901231593E-7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.077443155418988E-7</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.3774116225095309E-7</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.2248501214882561E-8</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.851778347435566E-8</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.9338872203274829E-7</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.321407704608854E-7</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.7651743341754555E-7</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.1722825239800832E-7</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.2293014891402982E-7</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.1921947565485105E-7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4.3840437426665065E-8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.6731189290984797E-7</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.8322627210825987E-7</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.1271509062659103E-7</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.4447147432764973E-7</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.1789834707366624E-7</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.1393485258268897E-7</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.7019571680898422E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41F5-4A66-802E-D6C38B13521E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="853021599"/>
+        <c:axId val="853019679"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="853021599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853019679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="853019679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853021599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>87630</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafikon 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DEF4C6-6D3A-359D-3F02-6DFE866051AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -557,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C859CF-4964-480B-9941-1C0822C5FFDC}">
   <dimension ref="A1:U423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="H212" sqref="H212:H347"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21769,15 +23051,17 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e1ff9531-9b81-4e3f-b9cc-077884f33e13" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21931,26 +23215,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e1ff9531-9b81-4e3f-b9cc-077884f33e13" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A256DA22-9739-4E94-A75C-3B3649844531}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E57006-FA74-48F7-BBC3-A420E6575EF3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e1ff9531-9b81-4e3f-b9cc-077884f33e13"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21974,9 +23249,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E57006-FA74-48F7-BBC3-A420E6575EF3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A256DA22-9739-4E94-A75C-3B3649844531}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e1ff9531-9b81-4e3f-b9cc-077884f33e13"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>